--- a/主板设备以及IO占用.xlsx
+++ b/主板设备以及IO占用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86135\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86135\Desktop\WearableGasDetect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489108F4-2255-4A9D-9B41-CC45F14531E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B296AA-226F-4E54-87CB-BD5175683367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="1908" windowWidth="18528" windowHeight="10332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="1980" windowWidth="18528" windowHeight="10332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="132">
   <si>
     <t>TFT-LCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,34 @@
   </si>
   <si>
     <t>BUZZER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH582F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH582RX0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH582TX0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +547,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u val="double"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -648,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -673,6 +722,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -953,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,7 +1026,7 @@
     <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,11 +1040,11 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="4" t="s">
         <v>93</v>
       </c>
@@ -998,8 +1060,13 @@
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1018,13 +1085,13 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1054,8 +1121,17 @@
       <c r="S2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
@@ -1074,13 +1150,13 @@
       <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1110,8 +1186,17 @@
       <c r="S3" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
@@ -1128,13 +1213,13 @@
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1155,8 +1240,17 @@
       <c r="P4" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1210,7 +1304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1228,7 +1322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +1340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1336,7 +1430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1372,7 +1466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1614,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="C3:C23"/>
